--- a/data/Flight_Data.xlsx
+++ b/data/Flight_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://honeywellprod-my.sharepoint.com/personal/surriya_s_honeywell_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5be70d6c464d5513/Documents/GitHub/flight-scheduling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58727F9C-E7DF-4879-9D87-F8360F03DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{58727F9C-E7DF-4879-9D87-F8360F03DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B942E92-6A89-4750-BA69-927110B7F671}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B00BABEF-F047-4DDA-B6DE-E735EDC93AAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B00BABEF-F047-4DDA-B6DE-E735EDC93AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="6AM - 9AM" sheetId="5" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="925">
   <si>
     <t>Flight Number</t>
   </si>
@@ -3033,10 +3031,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3358,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAEE488-63D0-45BF-954B-5DAE83F4E234}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3381,6 +3375,9 @@
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>919</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>920</v>
@@ -20038,7 +20035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E8C22-20F6-4815-B480-EA416792C5A7}">
   <dimension ref="A1:N517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
